--- a/Nucleo_DCO_ブロック図.xlsx
+++ b/Nucleo_DCO_ブロック図.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Documents\Develop\Nucleo_DCO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,16 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Nucleo DCO ブロック図</t>
     <rPh sb="15" eb="16">
       <t>ズ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2018.08.19</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -55,6 +51,25 @@
     <rPh sb="3" eb="5">
       <t>コンザイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.09.09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電源系</t>
+    <rPh sb="0" eb="3">
+      <t>デンゲンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.3V</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -110,11 +125,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -138,13 +156,352 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="Rounded Rectangle 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3943350" y="2743200"/>
+          <a:ext cx="1028700" cy="2571750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OSC3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="Rounded Rectangle 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914650" y="2743200"/>
+          <a:ext cx="1028700" cy="2571750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OSC2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Rounded Rectangle 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="2743200"/>
+          <a:ext cx="1028700" cy="2571750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OSC1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Rounded Rectangle 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="2743200"/>
+          <a:ext cx="1028700" cy="2571750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Master</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rounded Rectangle 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="685800"/>
+          <a:ext cx="1028700" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Master</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3943350" y="685800"/>
+          <a:ext cx="1028700" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OSC3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -194,13 +551,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -259,25 +616,90 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Oval 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="847725" y="1885950"/>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Oval 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="1200150"/>
+          <a:ext cx="685800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>Shape</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>SW</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Oval 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="3771900"/>
           <a:ext cx="685800" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -307,7 +729,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>Freq</a:t>
+            <a:t>PW</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -324,28 +746,158 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Oval 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="857250" y="1200150"/>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Oval 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5314950" y="2914650"/>
           <a:ext cx="685800" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>Level</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>POT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Oval 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="4457700"/>
+          <a:ext cx="685800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>Level</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>POT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914650" y="2057400"/>
+          <a:ext cx="685800" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -371,46 +923,212 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>Shape</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>SW</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>INT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Oval 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="857250" y="2571750"/>
-          <a:ext cx="685800" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5647765" y="2353236"/>
+          <a:ext cx="672353" cy="1344706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ADC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6488206" y="2353236"/>
+          <a:ext cx="672353" cy="1344706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>I2C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="2066925"/>
+          <a:ext cx="685800" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DAC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Pentagon 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="1371600"/>
+          <a:ext cx="685800" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -436,46 +1154,39 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>Phase</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>POT</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Oval 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5314950" y="2914650"/>
-          <a:ext cx="685800" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>AC Cpl</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Pentagon 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000750" y="1371600"/>
+          <a:ext cx="685800" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -501,432 +1212,6 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>Level</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>POT</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Oval 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="857250" y="3257550"/>
-          <a:ext cx="685800" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>PW</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>POT</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2914650" y="2057400"/>
-          <a:ext cx="685800" cy="1028700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>GPIO/</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>INT</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="3429000"/>
-          <a:ext cx="685800" cy="1714500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ADC</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectangle 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4286250" y="3429000"/>
-          <a:ext cx="685800" cy="1714500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>SPI</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectangle 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4286250" y="2066925"/>
-          <a:ext cx="685800" cy="1028700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>DAC</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Pentagon 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4629150" y="1371600"/>
-          <a:ext cx="685800" cy="676275"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>AC Cpl</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Pentagon 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6000750" y="1371600"/>
-          <a:ext cx="685800" cy="676275"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>Amp</a:t>
           </a:r>
@@ -938,16 +1223,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -956,8 +1241,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2400300" y="2228850"/>
-          <a:ext cx="857250" cy="9525"/>
+          <a:off x="4972050" y="1714500"/>
+          <a:ext cx="1028700" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -985,28 +1270,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="6"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2400300" y="2914650"/>
-          <a:ext cx="857250" cy="0"/>
+          <a:off x="4972050" y="3257550"/>
+          <a:ext cx="781050" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1017,13 +1300,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1034,160 +1317,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="6"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2390775" y="3600450"/>
-          <a:ext cx="523875" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="6"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2400300" y="4286250"/>
-          <a:ext cx="857250" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="6"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2400300" y="4972050"/>
-          <a:ext cx="857250" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1231,13 +1367,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1280,15 +1416,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1298,8 +1434,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="3478696"/>
-          <a:ext cx="1043609" cy="695739"/>
+          <a:off x="7029450" y="3086100"/>
+          <a:ext cx="685800" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1328,7 +1464,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>LCD/OLED</a:t>
+            <a:t>OLED</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1338,15 +1474,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1356,8 +1492,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4870174" y="4696239"/>
-          <a:ext cx="521804" cy="0"/>
+          <a:off x="6686550" y="3429000"/>
+          <a:ext cx="342900" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1385,13 +1521,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -1443,13 +1579,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1497,13 +1633,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1551,13 +1687,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1601,6 +1737,1231 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rounded Rectangle 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914650" y="685800"/>
+          <a:ext cx="1028700" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OSC2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Oval 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="1028700"/>
+          <a:ext cx="685800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>Range</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>SW</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Oval 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="3086100"/>
+          <a:ext cx="685800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>DTN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>POT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Oval 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="1714500"/>
+          <a:ext cx="685800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>Shape</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>SW</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Oval 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="3771900"/>
+          <a:ext cx="685800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>PW</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>POT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Oval 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="4457700"/>
+          <a:ext cx="685800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>Level</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>POT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rounded Rectangle 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="685800"/>
+          <a:ext cx="1028700" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OSC1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Oval 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="1028700"/>
+          <a:ext cx="685800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>Range</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>SW</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Oval 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="3086100"/>
+          <a:ext cx="685800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Master</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Freq</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>POT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Oval 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="1714500"/>
+          <a:ext cx="685800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>Shape</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>SW</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Oval 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="3771900"/>
+          <a:ext cx="685800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>PW</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>POT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Oval 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="4457700"/>
+          <a:ext cx="685800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>Level</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>POT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Oval 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="3086100"/>
+          <a:ext cx="685800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>DTN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>POT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Connector 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5143500" y="1543050"/>
+          <a:ext cx="171450" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Connector 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5143500" y="3086100"/>
+          <a:ext cx="266700" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rectangle 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9772650" y="4114800"/>
+          <a:ext cx="342900" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Oval 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="4457700"/>
+          <a:ext cx="685800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Master</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Level</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>POT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Oval 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="1028700"/>
+          <a:ext cx="685800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Display</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0"/>
+            <a:t> Mode SW</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Rectangle 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5647765" y="3843618"/>
+          <a:ext cx="1512794" cy="504264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3.3V</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> Regulator</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Elbow Connector 86"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5516376" y="3887601"/>
+          <a:ext cx="368674" cy="1457325"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1869,37 +3230,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AJ24"/>
+  <dimension ref="B2:BC29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AO29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="28" max="28" width="2.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="AB11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="28:55" x14ac:dyDescent="0.15">
+      <c r="AB20" s="2"/>
+    </row>
+    <row r="21" spans="28:55" x14ac:dyDescent="0.15">
+      <c r="AB21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="28:55" x14ac:dyDescent="0.15">
+      <c r="BC22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="36:36" x14ac:dyDescent="0.15">
-      <c r="AJ22" t="s">
+    <row r="23" spans="28:55" x14ac:dyDescent="0.15">
+      <c r="BC23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="36:36" x14ac:dyDescent="0.15">
-      <c r="AJ23" t="s">
+    <row r="24" spans="28:55" x14ac:dyDescent="0.15">
+      <c r="BC24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="36:36" x14ac:dyDescent="0.15">
-      <c r="AJ24" t="s">
-        <v>4</v>
+    <row r="25" spans="28:55" x14ac:dyDescent="0.15">
+      <c r="BC25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="28:55" x14ac:dyDescent="0.15">
+      <c r="AF29" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Nucleo_DCO_ブロック図.xlsx
+++ b/Nucleo_DCO_ブロック図.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Nucleo DCO ブロック図</t>
     <rPh sb="15" eb="16">
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.09.09</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>電源系</t>
     <rPh sb="0" eb="3">
       <t>デンゲンケイ</t>
@@ -70,6 +66,17 @@
   </si>
   <si>
     <t>3.3V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電源電圧監視</t>
+    <rPh sb="0" eb="4">
+      <t>デンゲンデンアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.09.11</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1272,13 +1279,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1288,8 +1295,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4972050" y="3257550"/>
-          <a:ext cx="781050" cy="0"/>
+          <a:off x="4457700" y="3086100"/>
+          <a:ext cx="685800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2624,13 +2631,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2640,8 +2647,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5143500" y="3086100"/>
-          <a:ext cx="266700" cy="342900"/>
+          <a:off x="4629150" y="2914650"/>
+          <a:ext cx="171450" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2941,6 +2948,311 @@
           <a:ext cx="368674" cy="1457325"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rounded Rectangle 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="5143500"/>
+          <a:ext cx="857250" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>9V Power</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Arrow Connector 53"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4782207" y="3586655"/>
+          <a:ext cx="341586" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Elbow Connector 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="57" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4069558" y="4331496"/>
+          <a:ext cx="1804986" cy="342898"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Pentagon 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5143500" y="5153025"/>
+          <a:ext cx="514350" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DIV</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Connector 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="1"/>
+          <a:endCxn id="51" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5657850" y="5400675"/>
+          <a:ext cx="171450" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Arrow Connector 55"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6257925" y="4431926"/>
+          <a:ext cx="0" cy="711574"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -3230,10 +3542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:BC29"/>
+  <dimension ref="B2:BC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:BH35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3257,7 +3569,7 @@
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.15">
@@ -3266,11 +3578,8 @@
       </c>
     </row>
     <row r="20" spans="28:55" x14ac:dyDescent="0.15">
-      <c r="AB20" s="2"/>
-    </row>
-    <row r="21" spans="28:55" x14ac:dyDescent="0.15">
-      <c r="AB21" s="2" t="s">
-        <v>6</v>
+      <c r="AB20" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="28:55" x14ac:dyDescent="0.15">
@@ -3290,11 +3599,16 @@
     </row>
     <row r="25" spans="28:55" x14ac:dyDescent="0.15">
       <c r="BC25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="28:55" x14ac:dyDescent="0.15">
       <c r="AF29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="26:26" x14ac:dyDescent="0.15">
+      <c r="Z33" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Nucleo_DCO_ブロック図.xlsx
+++ b/Nucleo_DCO_ブロック図.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nucleo DCO ブロック図</t>
     <rPh sb="15" eb="16">
@@ -76,7 +76,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.09.11</t>
+    <t>12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.09.18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Output</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9V Power</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -163,15 +175,93 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>152868</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>172640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>172640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Rounded Rectangle 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7996498" y="2607727"/>
+          <a:ext cx="2456154" cy="1391478"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Output Board</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -224,13 +314,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -280,13 +370,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -336,13 +426,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -390,25 +480,81 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rounded Rectangle 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1899047" y="2762250"/>
+          <a:ext cx="2589609" cy="1035844"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SW</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Rounded Rectangle 47"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="857250" y="685800"/>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="685801"/>
           <a:ext cx="1028700" cy="1885950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -417,13 +563,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -433,11 +579,45 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OSC3 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RotEnc</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Master</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -446,72 +626,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rounded Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3943350" y="685800"/>
-          <a:ext cx="1028700" cy="1885950"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>OSC3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -520,8 +644,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3257550" y="1543050"/>
-          <a:ext cx="1885950" cy="3943350"/>
+          <a:off x="4972050" y="685801"/>
+          <a:ext cx="1885950" cy="5143500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -561,13 +685,13 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -576,7 +700,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="857250" y="514350"/>
+          <a:off x="3600450" y="1028701"/>
           <a:ext cx="685800" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -613,7 +737,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>SW</a:t>
+            <a:t>RE</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
@@ -626,13 +750,13 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -641,7 +765,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="857250" y="1200150"/>
+          <a:off x="3600450" y="1714501"/>
           <a:ext cx="685800" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -678,7 +802,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>SW</a:t>
+            <a:t>RE</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
@@ -690,13 +814,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -754,15 +878,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>16564</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1190</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -771,8 +895,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5314950" y="2914650"/>
-          <a:ext cx="685800" cy="685800"/>
+          <a:off x="7147890" y="3479886"/>
+          <a:ext cx="712305" cy="695739"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -820,13 +944,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -884,15 +1008,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>5954</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>5954</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160735</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -901,8 +1025,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2914650" y="2057400"/>
-          <a:ext cx="685800" cy="1028700"/>
+          <a:off x="5185173" y="2750344"/>
+          <a:ext cx="690562" cy="1035844"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -942,14 +1066,14 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>172640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -958,8 +1082,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5647765" y="2353236"/>
-          <a:ext cx="672353" cy="1344706"/>
+          <a:off x="5179219" y="3970734"/>
+          <a:ext cx="690562" cy="1035845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1000,14 +1124,14 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>172640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>172640</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1016,8 +1140,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6488206" y="2353236"/>
-          <a:ext cx="672353" cy="1344706"/>
+          <a:off x="6042422" y="3970734"/>
+          <a:ext cx="690562" cy="1035845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1058,14 +1182,14 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>172640</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160735</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1074,8 +1198,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4286250" y="2066925"/>
-          <a:ext cx="685800" cy="1028700"/>
+          <a:off x="6042422" y="2750344"/>
+          <a:ext cx="690562" cy="1035844"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1115,15 +1239,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>152868</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>8595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>152868</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>173004</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1132,8 +1256,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4629150" y="1371600"/>
-          <a:ext cx="685800" cy="676275"/>
+          <a:off x="8170433" y="2965486"/>
+          <a:ext cx="695739" cy="686214"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1173,15 +1297,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>173676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1190,8 +1314,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6000750" y="1371600"/>
-          <a:ext cx="685800" cy="676275"/>
+          <a:off x="9561443" y="2966158"/>
+          <a:ext cx="695740" cy="686214"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1231,15 +1355,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>5954</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>5954</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1248,8 +1372,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4972050" y="1714500"/>
-          <a:ext cx="1028700" cy="0"/>
+          <a:off x="4494610" y="3269456"/>
+          <a:ext cx="690563" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1279,13 +1403,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1326,27 +1450,24 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>152868</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="18" idx="3"/>
-          <a:endCxn id="19" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3429000" y="1709738"/>
-          <a:ext cx="1200150" cy="14287"/>
+        <a:xfrm>
+          <a:off x="6783457" y="3304761"/>
+          <a:ext cx="1386976" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1374,28 +1495,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>161693</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12604</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5565913" y="2618547"/>
-          <a:ext cx="0" cy="338344"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7381643" y="3257550"/>
+          <a:ext cx="232" cy="184054"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1425,13 +1544,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1483,13 +1602,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1528,16 +1647,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>152867</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>8595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>152868</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>173004</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1546,8 +1665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5314949" y="1371600"/>
-          <a:ext cx="685801" cy="676275"/>
+          <a:off x="8866171" y="2965486"/>
+          <a:ext cx="695740" cy="686214"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1586,16 +1705,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1604,7 +1723,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5657850" y="3600450"/>
+          <a:off x="10134600" y="5486401"/>
           <a:ext cx="342900" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1640,16 +1759,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1658,7 +1777,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5657850" y="3771900"/>
+          <a:off x="10134600" y="5657851"/>
           <a:ext cx="342900" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1694,16 +1813,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1712,7 +1831,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5657850" y="3943350"/>
+          <a:off x="10134600" y="5829301"/>
           <a:ext cx="342900" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1751,13 +1870,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1766,7 +1885,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2914650" y="685800"/>
+          <a:off x="2400300" y="685801"/>
           <a:ext cx="1028700" cy="1885950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1791,11 +1910,46 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OSC2 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RotEnc</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>OSC2</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1810,13 +1964,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1825,7 +1979,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200150" y="1028700"/>
+          <a:off x="2571750" y="1028701"/>
           <a:ext cx="685800" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1862,7 +2016,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>SW</a:t>
+            <a:t>RE</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
@@ -1874,13 +2028,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1940,13 +2094,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1955,7 +2109,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200150" y="1714500"/>
+          <a:off x="2571750" y="1714501"/>
           <a:ext cx="685800" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1992,7 +2146,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>SW</a:t>
+            <a:t>RE</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
@@ -2004,13 +2158,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2069,13 +2223,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2135,13 +2289,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2150,7 +2304,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1885950" y="685800"/>
+          <a:off x="1371600" y="685801"/>
           <a:ext cx="1028700" cy="1885950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2178,7 +2332,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>OSC1</a:t>
+            <a:t>OSC1 RotEnc</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2191,13 +2345,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2206,7 +2360,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="1028700"/>
+          <a:off x="1543050" y="1028701"/>
           <a:ext cx="685800" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2243,7 +2397,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>SW</a:t>
+            <a:t>RE</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
@@ -2255,13 +2409,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2328,13 +2482,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2343,7 +2497,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="1714500"/>
+          <a:off x="1543050" y="1714501"/>
           <a:ext cx="685800" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2380,7 +2534,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>SW</a:t>
+            <a:t>RE</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
@@ -2392,13 +2546,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2457,13 +2611,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2522,13 +2676,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2586,15 +2740,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>172640</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2603,8 +2757,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5143500" y="1543050"/>
-          <a:ext cx="171450" cy="342900"/>
+          <a:off x="4661299" y="3107531"/>
+          <a:ext cx="172641" cy="345281"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2631,13 +2785,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2673,16 +2827,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2691,7 +2845,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9772650" y="4114800"/>
+          <a:off x="10134600" y="6000751"/>
           <a:ext cx="342900" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2729,13 +2883,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2800,15 +2954,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>172640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2818,8 +2972,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1028700" y="1028700"/>
-          <a:ext cx="685800" cy="685800"/>
+          <a:off x="2071688" y="2934890"/>
+          <a:ext cx="690562" cy="690563"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2847,12 +3001,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>Display</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0"/>
-            <a:t> Mode SW</a:t>
+            <a:t>Reseve SW</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
         </a:p>
@@ -2864,13 +3014,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2926,13 +3076,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2975,13 +3125,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3033,13 +3183,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3080,13 +3230,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3126,13 +3276,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3184,13 +3334,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3231,13 +3381,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3253,6 +3403,820 @@
           <a:ext cx="0" cy="711574"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Oval 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="2944416"/>
+          <a:ext cx="690563" cy="690563"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Display</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0"/>
+            <a:t> Off</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0"/>
+            <a:t>SW</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>41672</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>41672</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Oval 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="2928938"/>
+          <a:ext cx="690563" cy="690563"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Display</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0"/>
+            <a:t> Mode</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0"/>
+            <a:t>SW</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>5953</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>172639</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Rectangle 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5223996" y="1043610"/>
+          <a:ext cx="1558165" cy="1565413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GPIO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>173934</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Straight Arrow Connector 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4522304" y="1739348"/>
+          <a:ext cx="695739" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>172640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Straight Connector 64"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4696241" y="1565413"/>
+          <a:ext cx="173935" cy="346575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Rounded Rectangle 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="1200150"/>
+          <a:ext cx="3429000" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>LED</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>112645</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>112645</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Oval 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7765775" y="1391478"/>
+          <a:ext cx="695740" cy="695739"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>OSC1 PW</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Vald</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>112645</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>112646</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Oval 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8461515" y="1391478"/>
+          <a:ext cx="695740" cy="695739"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>OSC2 PW</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Vald</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>112646</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>112647</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Oval 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9157255" y="1391478"/>
+          <a:ext cx="695740" cy="695739"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>OSC3 PW</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Vald</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>91112</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>91113</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Oval 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10005395" y="1391478"/>
+          <a:ext cx="695740" cy="695739"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Level</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Clip</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Straight Arrow Connector 70"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="66" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6686550" y="1714500"/>
+          <a:ext cx="704850" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Connector 71"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7147891" y="1566708"/>
+          <a:ext cx="173935" cy="346575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10257183" y="3304761"/>
+          <a:ext cx="891208" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>162159</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Elbow Connector 75"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="3"/>
+          <a:endCxn id="73" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6686550" y="3944540"/>
+          <a:ext cx="2410059" cy="2656285"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -3542,18 +4506,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:BC33"/>
+  <dimension ref="B2:BJ40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:BH35"/>
+      <selection sqref="A1:BO42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="28" max="28" width="2.25" customWidth="1"/>
+    <col min="42" max="42" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3567,48 +4532,64 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="AB12" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="AB11">
-        <v>7</v>
+      <c r="AP12">
+        <v>4</v>
       </c>
     </row>
-    <row r="20" spans="28:55" x14ac:dyDescent="0.15">
-      <c r="AB20" s="2" t="s">
+    <row r="20" spans="28:62" x14ac:dyDescent="0.15">
+      <c r="BJ20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="28:62" x14ac:dyDescent="0.15">
+      <c r="AB21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="28:62" x14ac:dyDescent="0.15">
+      <c r="BC25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="28:62" x14ac:dyDescent="0.15">
+      <c r="AB27" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="28:55" x14ac:dyDescent="0.15">
-      <c r="BC22" t="s">
+    <row r="33" spans="26:62" x14ac:dyDescent="0.15">
+      <c r="BJ33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="28:55" x14ac:dyDescent="0.15">
-      <c r="BC23" t="s">
+    <row r="34" spans="26:62" x14ac:dyDescent="0.15">
+      <c r="BJ34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="28:55" x14ac:dyDescent="0.15">
-      <c r="BC24" t="s">
+    <row r="35" spans="26:62" x14ac:dyDescent="0.15">
+      <c r="BJ35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="28:55" x14ac:dyDescent="0.15">
-      <c r="BC25" t="s">
+    <row r="36" spans="26:62" x14ac:dyDescent="0.15">
+      <c r="AF36" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="28:55" x14ac:dyDescent="0.15">
-      <c r="AF29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.15">
-      <c r="Z33" t="s">
+    <row r="40" spans="26:62" x14ac:dyDescent="0.15">
+      <c r="Z40" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Nucleo_DCO_ブロック図.xlsx
+++ b/Nucleo_DCO_ブロック図.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Nucleo DCO ブロック図</t>
     <rPh sb="15" eb="16">
@@ -80,15 +80,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.09.18</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Output</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>9V Power</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.3V Power</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.09.21</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4215,6 +4219,55 @@
         <a:xfrm flipV="1">
           <a:off x="6686550" y="3944540"/>
           <a:ext cx="2410059" cy="2656285"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Elbow Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="40" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6696075" y="4972050"/>
+          <a:ext cx="685800" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4509,7 +4562,7 @@
   <dimension ref="B2:BJ40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:BO42"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4534,7 +4587,7 @@
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.15">
@@ -4547,7 +4600,7 @@
     </row>
     <row r="20" spans="28:62" x14ac:dyDescent="0.15">
       <c r="BJ20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="28:62" x14ac:dyDescent="0.15">
@@ -4557,12 +4610,17 @@
     </row>
     <row r="25" spans="28:62" x14ac:dyDescent="0.15">
       <c r="BC25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="28:62" x14ac:dyDescent="0.15">
       <c r="AB27" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="28:62" x14ac:dyDescent="0.15">
+      <c r="AR31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="26:62" x14ac:dyDescent="0.15">

--- a/Nucleo_DCO_ブロック図.xlsx
+++ b/Nucleo_DCO_ブロック図.xlsx
@@ -4559,6 +4559,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:BJ40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -4653,8 +4656,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;D&amp;T</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Nucleo_DCO_ブロック図.xlsx
+++ b/Nucleo_DCO_ブロック図.xlsx
@@ -84,15 +84,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>9V Power</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3.3V Power</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.09.21</t>
+    <t>2018.09.25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DC9VIN</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -180,15 +180,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>152868</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>172640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>172640</xdr:rowOff>
+      <xdr:colOff>152867</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -197,8 +197,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7996498" y="2607727"/>
-          <a:ext cx="2456154" cy="1391478"/>
+          <a:off x="7794034" y="2541189"/>
+          <a:ext cx="3064466" cy="2369479"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -484,16 +484,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>174170</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -502,8 +502,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1899047" y="2762250"/>
-          <a:ext cx="2589609" cy="1035844"/>
+          <a:off x="870856" y="2786743"/>
+          <a:ext cx="3657601" cy="1045028"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -882,15 +882,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>16564</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1190</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>16565</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1190</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9267</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -899,8 +899,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7147890" y="3479886"/>
-          <a:ext cx="712305" cy="695739"/>
+          <a:off x="6942667" y="2887934"/>
+          <a:ext cx="698501" cy="677333"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1458,8 +1458,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>152868</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1470,8 +1470,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6783457" y="3304761"/>
-          <a:ext cx="1386976" cy="0"/>
+          <a:off x="6604000" y="3217333"/>
+          <a:ext cx="355232" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1499,26 +1499,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>161693</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>12604</xdr:rowOff>
+      <xdr:rowOff>6134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>152868</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9268</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="6"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7381643" y="3257550"/>
-          <a:ext cx="232" cy="184054"/>
+        <a:xfrm flipV="1">
+          <a:off x="7641168" y="3223467"/>
+          <a:ext cx="322200" cy="3134"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2958,16 +2961,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>172640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>165157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2976,8 +2979,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2071688" y="2934890"/>
-          <a:ext cx="690562" cy="690563"/>
+          <a:off x="1915886" y="2951900"/>
+          <a:ext cx="696686" cy="698217"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3006,7 +3009,14 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0"/>
-            <a:t>Reseve SW</a:t>
+            <a:t>ADC Off </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0"/>
+            <a:t>SW</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
         </a:p>
@@ -3127,15 +3137,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>2304</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>2304</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3145,8 +3155,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5829300" y="5143500"/>
-          <a:ext cx="857250" cy="514350"/>
+          <a:off x="8998137" y="4233333"/>
+          <a:ext cx="846667" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3187,14 +3197,14 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3203,8 +3213,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4782207" y="3586655"/>
-          <a:ext cx="341586" cy="2"/>
+          <a:off x="4800600" y="4791075"/>
+          <a:ext cx="342900" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3232,16 +3242,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>89428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>112643</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3251,9 +3261,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4069558" y="4331496"/>
-          <a:ext cx="1804986" cy="342898"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="7318870" y="5322394"/>
+          <a:ext cx="1773239" cy="112641"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3278,16 +3288,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>112643</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>112643</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>169331</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3296,8 +3306,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5143500" y="5153025"/>
-          <a:ext cx="514350" cy="504825"/>
+          <a:off x="8261810" y="4242856"/>
+          <a:ext cx="508000" cy="498475"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3336,16 +3346,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>112643</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>2304</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>89427</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3357,8 +3367,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5657850" y="5400675"/>
-          <a:ext cx="171450" cy="4763"/>
+          <a:off x="8769810" y="4487333"/>
+          <a:ext cx="228327" cy="4761"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3383,65 +3393,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="Straight Arrow Connector 55"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="51" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6257925" y="4431926"/>
-          <a:ext cx="0" cy="711574"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165157</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165158</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3450,8 +3411,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2876550" y="2944416"/>
-          <a:ext cx="690563" cy="690563"/>
+          <a:off x="2786743" y="2951900"/>
+          <a:ext cx="696686" cy="696687"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3502,15 +3463,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>41672</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>8595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>41672</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>8595</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3519,8 +3480,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3667125" y="2928938"/>
-          <a:ext cx="690563" cy="690563"/>
+          <a:off x="3657600" y="2969509"/>
+          <a:ext cx="696686" cy="696686"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3724,7 +3685,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3737,7 +3698,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7391400" y="1200150"/>
-          <a:ext cx="3429000" cy="1028700"/>
+          <a:ext cx="4114800" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3851,7 +3812,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>Vald</a:t>
+            <a:t>Valid</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
         </a:p>
@@ -3916,7 +3877,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>Vald</a:t>
+            <a:t>Valid</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
         </a:p>
@@ -3981,7 +3942,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>Vald</a:t>
+            <a:t>Valid</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
         </a:p>
@@ -4149,16 +4110,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>58</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
+      <xdr:rowOff>9268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9268</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4167,8 +4128,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10257183" y="3304761"/>
-          <a:ext cx="891208" cy="0"/>
+          <a:off x="10672233" y="3226601"/>
+          <a:ext cx="863600" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4197,65 +4158,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1190</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>162159</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="Elbow Connector 75"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="51" idx="3"/>
-          <a:endCxn id="73" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6686550" y="3944540"/>
-          <a:ext cx="2410059" cy="2656285"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>160940</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4266,8 +4177,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6696075" y="4972050"/>
-          <a:ext cx="685800" cy="409575"/>
+          <a:off x="6670456" y="4953000"/>
+          <a:ext cx="683501" cy="341587"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4291,6 +4202,429 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>150451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>151982</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Oval 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1083129" y="2937194"/>
+          <a:ext cx="696686" cy="698217"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0"/>
+            <a:t>Reseve SW</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Oval 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10648949" y="1381125"/>
+          <a:ext cx="685801" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>ADC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Valid</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Elbow Connector 79"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4013639" y="5550775"/>
+          <a:ext cx="1537138" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Straight Connector 85"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4782209" y="6319345"/>
+          <a:ext cx="3435567" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>11834</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>169332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>86972</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>160734</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Elbow Connector 90"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7684285" y="3672881"/>
+          <a:ext cx="668735" cy="2805638"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>89428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="Straight Arrow Connector 98"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9842501" y="4487333"/>
+          <a:ext cx="1693332" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="Rounded Rectangle 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8995833" y="3716735"/>
+          <a:ext cx="846667" cy="516598"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>VGND</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>20599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="Pentagon 107"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9994900" y="2899266"/>
+          <a:ext cx="677333" cy="672409"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>AC Cpl</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4562,10 +4896,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BJ40"/>
+  <dimension ref="B2:BN38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BR40" sqref="A1:BR40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4590,7 +4924,7 @@
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.15">
@@ -4598,50 +4932,50 @@
         <v>8</v>
       </c>
       <c r="AP12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="28:66" x14ac:dyDescent="0.15">
+      <c r="BN20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="28:66" x14ac:dyDescent="0.15">
+      <c r="AB21">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="28:62" x14ac:dyDescent="0.15">
-      <c r="BJ20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="28:62" x14ac:dyDescent="0.15">
-      <c r="AB21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="28:62" x14ac:dyDescent="0.15">
-      <c r="BC25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="28:62" x14ac:dyDescent="0.15">
+    <row r="27" spans="28:66" x14ac:dyDescent="0.15">
       <c r="AB27" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="28:62" x14ac:dyDescent="0.15">
-      <c r="AR31" t="s">
-        <v>11</v>
+    <row r="28" spans="28:66" x14ac:dyDescent="0.15">
+      <c r="BN28" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="33" spans="26:62" x14ac:dyDescent="0.15">
+    <row r="31" spans="28:66" x14ac:dyDescent="0.15">
+      <c r="AR31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="32:62" x14ac:dyDescent="0.15">
       <c r="BJ33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="26:62" x14ac:dyDescent="0.15">
+    <row r="34" spans="32:62" x14ac:dyDescent="0.15">
       <c r="BJ34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="26:62" x14ac:dyDescent="0.15">
+    <row r="35" spans="32:62" x14ac:dyDescent="0.15">
       <c r="BJ35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="26:62" x14ac:dyDescent="0.15">
+    <row r="36" spans="32:62" x14ac:dyDescent="0.15">
       <c r="AF36" t="s">
         <v>6</v>
       </c>
@@ -4649,8 +4983,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="26:62" x14ac:dyDescent="0.15">
-      <c r="Z40" t="s">
+    <row r="38" spans="32:62" x14ac:dyDescent="0.15">
+      <c r="AJ38" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Nucleo_DCO_ブロック図.xlsx
+++ b/Nucleo_DCO_ブロック図.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Nucleo DCO ブロック図</t>
     <rPh sb="15" eb="16">
@@ -100,7 +100,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.10.22</t>
+    <t>DC9VIN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.10.27</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4693,6 +4697,55 @@
           <a:ext cx="786623" cy="168519"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6819900" y="5572126"/>
+          <a:ext cx="2286000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -4988,7 +5041,7 @@
   <dimension ref="B2:BN40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:BS41"/>
+      <selection sqref="A1:BS42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5014,7 +5067,7 @@
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.15">
@@ -5056,6 +5109,9 @@
       </c>
     </row>
     <row r="34" spans="33:66" x14ac:dyDescent="0.15">
+      <c r="AP34" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="BN34" s="1" t="s">
         <v>13</v>
       </c>

--- a/Nucleo_DCO_ブロック図.xlsx
+++ b/Nucleo_DCO_ブロック図.xlsx
@@ -3275,7 +3275,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>9V Power</a:t>
+            <a:t>9V Reglator</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -5041,7 +5041,7 @@
   <dimension ref="B2:BN40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:BS42"/>
+      <selection activeCell="BP28" sqref="BP28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Nucleo_DCO_ブロック図.xlsx
+++ b/Nucleo_DCO_ブロック図.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Nucleo DCO ブロック図</t>
     <rPh sb="15" eb="16">
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3.3V</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10V AC-DC</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -104,7 +100,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.10.27</t>
+    <t>2018.11.13</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1639,15 +1635,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1657,8 +1653,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7029450" y="3086100"/>
-          <a:ext cx="685800" cy="685800"/>
+          <a:off x="4953000" y="6515100"/>
+          <a:ext cx="704850" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1693,53 +1689,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6686550" y="3429000"/>
-          <a:ext cx="342900" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1804,14 +1753,14 @@
     <xdr:from>
       <xdr:col>59</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>8192</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>8192</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1820,8 +1769,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10134600" y="6180392"/>
-          <a:ext cx="342900" cy="171450"/>
+          <a:off x="10011833" y="6583892"/>
+          <a:ext cx="338667" cy="169333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1858,14 +1807,14 @@
     <xdr:from>
       <xdr:col>59</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>8192</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>8192</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>149226</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1874,8 +1823,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10134600" y="6351842"/>
-          <a:ext cx="342900" cy="171450"/>
+          <a:off x="10011833" y="6753225"/>
+          <a:ext cx="338667" cy="169334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1912,14 +1861,14 @@
     <xdr:from>
       <xdr:col>59</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>8192</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>149226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>8192</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1928,8 +1877,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10134600" y="6523292"/>
-          <a:ext cx="342900" cy="171450"/>
+          <a:off x="10011833" y="6922559"/>
+          <a:ext cx="338667" cy="169333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2926,14 +2875,14 @@
     <xdr:from>
       <xdr:col>59</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>8192</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>8192</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2942,8 +2891,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10134600" y="6694742"/>
-          <a:ext cx="342900" cy="171450"/>
+          <a:off x="10011833" y="7091892"/>
+          <a:ext cx="338667" cy="169333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4200,55 +4149,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>160940</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Elbow Connector 21"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="40" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6670456" y="4953000"/>
-          <a:ext cx="683501" cy="341587"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -4297,7 +4197,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0"/>
-            <a:t>Reseve SW</a:t>
+            <a:t>ReseveSW</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
         </a:p>
@@ -4746,6 +4646,436 @@
           <a:ext cx="2286000" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>170117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="6513767"/>
+          <a:ext cx="1905000" cy="1372933"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Arduino Pro mini</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> 8MHz</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>1190</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Rectangle 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6877050" y="6858000"/>
+          <a:ext cx="686990" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>I2C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>15375</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Rectangle 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6016125" y="6858000"/>
+          <a:ext cx="686990" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SPI</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>1190</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Rectangle 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6019799" y="7286625"/>
+          <a:ext cx="1544241" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3.3V Reguraltor</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>1190</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>595</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Elbow Connector 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="90" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6687740" y="4458296"/>
+          <a:ext cx="532805" cy="2399704"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>15375</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="92" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5657850" y="7029450"/>
+          <a:ext cx="358275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Arrow Connector 49"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="93" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5657850" y="7458075"/>
+          <a:ext cx="361949" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>1190</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Elbow Connector 95"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7734896" y="5658446"/>
+          <a:ext cx="1628774" cy="1970485"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -5038,10 +5368,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BN40"/>
+  <dimension ref="B2:BN43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BP28" sqref="BP28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:BS48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5067,7 +5397,7 @@
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.15">
@@ -5099,25 +5429,22 @@
       </c>
     </row>
     <row r="32" spans="28:66" x14ac:dyDescent="0.15">
-      <c r="AP32" t="s">
-        <v>11</v>
+      <c r="AR32" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="33:66" x14ac:dyDescent="0.15">
       <c r="BN33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="33:66" x14ac:dyDescent="0.15">
+      <c r="BN34" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="33:66" x14ac:dyDescent="0.15">
-      <c r="AP34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BN34" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="36" spans="33:66" x14ac:dyDescent="0.15">
-      <c r="AM36" t="s">
+      <c r="AK36" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5125,29 +5452,34 @@
       <c r="AG37" t="s">
         <v>6</v>
       </c>
-      <c r="BJ37" t="s">
+    </row>
+    <row r="40" spans="33:66" x14ac:dyDescent="0.15">
+      <c r="BJ40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="33:66" x14ac:dyDescent="0.15">
-      <c r="BJ38" t="s">
+    <row r="41" spans="33:66" x14ac:dyDescent="0.15">
+      <c r="BJ41" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="33:66" x14ac:dyDescent="0.15">
-      <c r="BJ39" t="s">
+    <row r="42" spans="33:66" x14ac:dyDescent="0.15">
+      <c r="BJ42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="33:66" x14ac:dyDescent="0.15">
-      <c r="BJ40" t="s">
+    <row r="43" spans="33:66" x14ac:dyDescent="0.15">
+      <c r="AU43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ43" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="89" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;D&amp;T</oddFooter>
   </headerFooter>

--- a/Nucleo_DCO_ブロック図.xlsx
+++ b/Nucleo_DCO_ブロック図.xlsx
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>電源電圧監視</t>
     <rPh sb="0" eb="4">
       <t>デンゲンデンアツ</t>
@@ -92,10 +88,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.11.17</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CV</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -117,6 +109,14 @@
   </si>
   <si>
     <t>9V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.11.19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3337,11 +3337,11 @@
     <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>173934</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>75</xdr:col>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3353,8 +3353,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9061174" y="1217543"/>
-          <a:ext cx="4017065" cy="1043609"/>
+          <a:off x="8934450" y="1202634"/>
+          <a:ext cx="4133850" cy="1026216"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3870,13 +3870,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>70</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>64709</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>74</xdr:col>
-      <xdr:colOff>11491</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3887,8 +3887,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11895667" y="1354667"/>
-          <a:ext cx="688824" cy="677333"/>
+          <a:off x="12104309" y="1371600"/>
+          <a:ext cx="697291" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3917,14 +3917,14 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>ADC</a:t>
+            <a:t>Power</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>Valid</a:t>
+            <a:t>LED</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
         </a:p>
@@ -5449,6 +5449,120 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Elbow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="10358437" y="3205164"/>
+          <a:ext cx="3257551" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>6106</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>5291</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4234</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="Oval 95"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2715439" y="4237567"/>
+          <a:ext cx="676519" cy="677334"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>DTN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>POT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5722,8 +5836,8 @@
   </sheetPr>
   <dimension ref="B2:BQ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:BX43"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AE28" sqref="AE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5749,23 +5863,23 @@
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:45" x14ac:dyDescent="0.15">
       <c r="AE12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="3:69" x14ac:dyDescent="0.15">
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BQ20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="3:69" x14ac:dyDescent="0.15">
@@ -5775,46 +5889,46 @@
     </row>
     <row r="22" spans="3:69" x14ac:dyDescent="0.15">
       <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="3:69" x14ac:dyDescent="0.15">
       <c r="AE27" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="3:69" x14ac:dyDescent="0.15">
       <c r="AU29" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BH29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="3:69" x14ac:dyDescent="0.15">
       <c r="AR32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU32" s="1"/>
     </row>
     <row r="33" spans="22:69" x14ac:dyDescent="0.15">
       <c r="BQ33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="22:69" x14ac:dyDescent="0.15">
       <c r="BQ34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="22:69" x14ac:dyDescent="0.15">
       <c r="AF36" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="22:69" x14ac:dyDescent="0.15">
       <c r="AM38" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB38" t="s">
         <v>1</v>
@@ -5822,7 +5936,7 @@
     </row>
     <row r="39" spans="22:69" x14ac:dyDescent="0.15">
       <c r="V39" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB39" t="s">
         <v>2</v>
@@ -5844,7 +5958,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="84" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;D&amp;T</oddFooter>
   </headerFooter>

--- a/Nucleo_DCO_ブロック図.xlsx
+++ b/Nucleo_DCO_ブロック図.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Nucleo DCO ブロック図</t>
     <rPh sb="15" eb="16">
@@ -112,11 +112,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.11.19</t>
+    <t>11</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>11</t>
+    <t>9V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.11.24</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1614,16 +1618,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>168087</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>148167</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>169332</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1632,8 +1636,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8594912" y="6219264"/>
-          <a:ext cx="336177" cy="168088"/>
+          <a:off x="11535833" y="6265333"/>
+          <a:ext cx="338667" cy="169332"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1668,16 +1672,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>168087</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:rowOff>169332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>148167</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1245</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1686,8 +1690,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8594912" y="6387352"/>
-          <a:ext cx="336177" cy="168089"/>
+          <a:off x="11535833" y="6434665"/>
+          <a:ext cx="338667" cy="170580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1722,16 +1726,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:rowOff>1245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>148167</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1245</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1740,8 +1744,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8594912" y="6555441"/>
-          <a:ext cx="336177" cy="168088"/>
+          <a:off x="11535833" y="6605245"/>
+          <a:ext cx="338667" cy="169333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2586,16 +2590,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:rowOff>1245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>148167</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:rowOff>169333</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2604,8 +2608,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8594912" y="6723529"/>
-          <a:ext cx="336177" cy="168088"/>
+          <a:off x="11535833" y="6774578"/>
+          <a:ext cx="338667" cy="168088"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5563,6 +5567,58 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>84043</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Elbow Connector 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="2"/>
+          <a:endCxn id="115" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="5090272" y="920439"/>
+          <a:ext cx="677334" cy="8996457"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -204062"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5834,10 +5890,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BQ43"/>
+  <dimension ref="B2:BS43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AE28" sqref="AE28"/>
+      <selection sqref="A1:BY45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5863,7 +5919,7 @@
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:45" x14ac:dyDescent="0.15">
@@ -5894,7 +5950,7 @@
     </row>
     <row r="27" spans="3:69" x14ac:dyDescent="0.15">
       <c r="AE27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="3:69" x14ac:dyDescent="0.15">
@@ -5905,54 +5961,59 @@
         <v>8</v>
       </c>
     </row>
+    <row r="31" spans="3:69" x14ac:dyDescent="0.15">
+      <c r="G31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="32" spans="3:69" x14ac:dyDescent="0.15">
       <c r="AR32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AU32" s="1"/>
     </row>
-    <row r="33" spans="22:69" x14ac:dyDescent="0.15">
+    <row r="33" spans="22:71" x14ac:dyDescent="0.15">
       <c r="BQ33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="22:69" x14ac:dyDescent="0.15">
+    <row r="34" spans="22:71" x14ac:dyDescent="0.15">
       <c r="BQ34" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="22:69" x14ac:dyDescent="0.15">
+    <row r="36" spans="22:71" x14ac:dyDescent="0.15">
       <c r="AF36" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="22:69" x14ac:dyDescent="0.15">
+    <row r="38" spans="22:71" x14ac:dyDescent="0.15">
       <c r="AM38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="BB38" t="s">
+      <c r="BS38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="22:69" x14ac:dyDescent="0.15">
+    <row r="39" spans="22:71" x14ac:dyDescent="0.15">
       <c r="V39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="BB39" t="s">
+      <c r="BS39" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="22:69" x14ac:dyDescent="0.15">
-      <c r="BB40" t="s">
+    <row r="40" spans="22:71" x14ac:dyDescent="0.15">
+      <c r="BS40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="22:69" x14ac:dyDescent="0.15">
-      <c r="BB41" t="s">
+    <row r="41" spans="22:71" x14ac:dyDescent="0.15">
+      <c r="BS41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="22:69" x14ac:dyDescent="0.15">
+    <row r="43" spans="22:71" x14ac:dyDescent="0.15">
       <c r="AX43" s="1"/>
     </row>
   </sheetData>

--- a/Nucleo_DCO_ブロック図.xlsx
+++ b/Nucleo_DCO_ブロック図.xlsx
@@ -120,7 +120,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.11.24</t>
+    <t>2018.12.07</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1253,16 +1253,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>148167</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>57</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9267</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>148166</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>173676</xdr:rowOff>
+      <xdr:rowOff>164409</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1271,8 +1271,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9561443" y="2966158"/>
-          <a:ext cx="695740" cy="686214"/>
+          <a:off x="9144000" y="2878667"/>
+          <a:ext cx="677333" cy="672409"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1560,16 +1560,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>152867</xdr:colOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>148166</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>8595</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>152868</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>148168</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>173004</xdr:rowOff>
+      <xdr:rowOff>164409</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1578,8 +1578,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8866171" y="2965486"/>
-          <a:ext cx="695740" cy="686214"/>
+          <a:off x="9821333" y="2878667"/>
+          <a:ext cx="677335" cy="672409"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -5892,8 +5892,8 @@
   </sheetPr>
   <dimension ref="B2:BS43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:BY45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:BZ44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
